--- a/others/Developers/Switzerland.xlsx
+++ b/others/Developers/Switzerland.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
   <si>
     <t>https://t.me/MiguelAsencio</t>
   </si>
@@ -409,6 +409,15 @@
   </si>
   <si>
     <t>@xfazio</t>
+  </si>
+  <si>
+    <t>+1 630 890 9451</t>
+  </si>
+  <si>
+    <t>Robb Fitzsimmons</t>
+  </si>
+  <si>
+    <t>http://robbfitzsimmons.com/</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -506,6 +515,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1293,6 +1305,17 @@
       </c>
       <c r="C40" s="5" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1346,8 +1369,9 @@
     <hyperlink ref="A39" r:id="rId47"/>
     <hyperlink ref="A40" r:id="rId48"/>
     <hyperlink ref="A17" r:id="rId49"/>
+    <hyperlink ref="A41" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>